--- a/biology/Botanique/Halodule/Halodule.xlsx
+++ b/biology/Botanique/Halodule/Halodule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halodule  est un genre d'herbes marines monocotylédones de la famille des Cymodoceaceae formant des Herbiers marins,  qui comprend 2 à 8 espèces selon les sources.
-Le nom générique Halodule dérive du grec « hals  » (latin « halos ») (sel) et « dulo » (esclave)[1], pour qualifier une plante qui vit exclusivement en eau salée.
+Le nom générique Halodule dérive du grec « hals  » (latin « halos ») (sel) et « dulo » (esclave), pour qualifier une plante qui vit exclusivement en eau salée.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Cymodoceaceae, dont les caractères distinctifs sont les suivants[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Cymodoceaceae, dont les caractères distinctifs sont les suivants :
 Feuilles en forme de ruban, portant une gaine à leur base, une ligule à la jonction de la gaine et du limbe,
 Présence de nombreuses cellules à tanin sur les feuilles,
 Tige ne portant pas de feuilles à chaque nœud du rhizome et dotée de racines ramifiées,
@@ -546,7 +560,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des espèces acceptées dans ce genre est controversée, en effet :
 Selon ITIS :
@@ -597,7 +613,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Certaines Halodule était anciennement nommées Diplanthera Thou., 1811 ; du latin « diplo  » (double) et « anther  »  (anthère), plante dont la fleur mâle présente deux anthères soudées.
 La synonymie des espèces est la suivante :
@@ -651,10 +669,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ce genre est largement répandu dans l'océan Indien jusque dans la zone sud-ouest de l'océan Pacifique, ainsi que dans le golfe du Mexique.
-Plus précisément[2] :
+Plus précisément :
 Halodule pinifolia est répandue de l'ouest de l'océan Pacifique tropical ; de Taïwan et sud du Japon, au Queensland (Australie),
 Halodule uninervis est largement distribuée en zone Indo-Pacifique, c'est-à-dire des côtes est-africaines aux Philippines et au Queensland (Australie),
 Halodule wrightii : a été récoltée dans l'ouest de l'océan Atlantique tropical et sur les côtes atlantiques d'Afrique.</t>
@@ -686,6 +706,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
